--- a/tut05/output/0401CS11.xlsx
+++ b/tut05/output/0401CS11.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.551020408163266</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>7.590909090909091</v>
+        <v>7.59</v>
       </c>
       <c r="D6" t="n">
-        <v>8.209302325581396</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>7.914893617021277</v>
+        <v>7.91</v>
       </c>
       <c r="F6" t="n">
-        <v>8.380952380952381</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>8.65</v>
       </c>
       <c r="H6" t="n">
-        <v>9.170731707317072</v>
+        <v>9.17</v>
       </c>
       <c r="I6" t="n">
         <v>9.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.551020408163266</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.096774193548388</v>
+        <v>8.1</v>
       </c>
       <c r="D8" t="n">
-        <v>8.132352941176471</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.076502732240437</v>
+        <v>8.08</v>
       </c>
       <c r="F8" t="n">
-        <v>8.133333333333333</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.211320754716981</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.339869281045752</v>
+        <v>8.34</v>
       </c>
       <c r="I8" t="n">
-        <v>8.497109826589595</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
